--- a/biology/Zoologie/Grallaire_masquée/Grallaire_masquée.xlsx
+++ b/biology/Zoologie/Grallaire_masquée/Grallaire_masquée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_masqu%C3%A9e</t>
+          <t>Grallaire_masquée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria erythrotis
 La Grallaire masquée (Grallaria erythrotis) est une espèce d'oiseau de la famille des Grallariidae. Cette espèce est monotypique (elle n'est pas divisée en sous-espèces).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_masqu%C3%A9e</t>
+          <t>Grallaire_masquée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 17 cm pour un poids allant de 73 à 80 g[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 17 cm pour un poids allant de 73 à 80 g. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_masqu%C3%A9e</t>
+          <t>Grallaire_masquée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bolivie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bolivie.
 Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
         </is>
